--- a/New Microsoft Excel Worksheet (2).xlsx
+++ b/New Microsoft Excel Worksheet (2).xlsx
@@ -24,13 +24,13 @@
     <t>Tranzakcijos</t>
   </si>
   <si>
-    <t>Pirmas straipsnis</t>
+    <t>IBM</t>
   </si>
   <si>
-    <t>Antras straipsnis</t>
+    <t>Tailando ,,Kompiuterių technologijos centras"</t>
   </si>
   <si>
-    <t>Trečias straipsnis</t>
+    <t>Sharjah universitetas</t>
   </si>
 </sst>
 </file>
@@ -171,7 +171,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pirmas straipsnis</c:v>
+                  <c:v>Tailando ,,Kompiuterių technologijos centras"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -265,7 +265,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Antras straipsnis</c:v>
+                  <c:v>IBM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -308,10 +308,10 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>100</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -332,7 +332,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trečias straipsnis</c:v>
+                  <c:v>Sharjah universitetas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -394,7 +394,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -794,7 +793,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Antras straipsnis</c:v>
+                  <c:v>IBM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -869,7 +868,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trečias straipsnis</c:v>
+                  <c:v>Sharjah universitetas</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -926,7 +925,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Pirmas straipsnis</c:v>
+                  <c:v>Tailando ,,Kompiuterių technologijos centras"</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2726,16 +2725,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="2.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
@@ -2747,10 +2746,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2759,10 +2758,10 @@
         <v>3</v>
       </c>
       <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
         <v>1</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -2819,7 +2818,7 @@
         <v>299.85000000000002</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D4">
         <v>170</v>
@@ -2842,7 +2841,7 @@
         <v>251.02</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="D5">
         <v>180</v>
